--- a/statistics/HistoricalDistanceData/historical_distance/Q62389968-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q62389968-en.xlsx
@@ -31,24 +31,24 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Central Mali: Top UN genocide prevention official sounds alarm over recent ethnically-targeted killings</t>
+  </si>
+  <si>
     <t>Mali arrests five suspects in killing of 157 villagers</t>
   </si>
   <si>
-    <t>Central Mali: Top UN genocide prevention official sounds alarm over recent ethnically-targeted killings</t>
-  </si>
-  <si>
     <t>Death Toll From Mali Attacks Climbs to 160, Government Says</t>
   </si>
   <si>
     <t>Six die in Mali attacks</t>
   </si>
   <si>
+    <t>2019-03-27T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2019-03-30T10:20:36UTC</t>
   </si>
   <si>
-    <t>2019-03-27T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2019-03-26T07:58:28UTC</t>
   </si>
   <si>
@@ -58,10 +58,10 @@
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://news.un.org/en/story/2019/03/1035661</t>
+  </si>
+  <si>
     <t>https://www.africanews.com/2019/03/30/mali-arrests-five-suspects-in-killing-of-157-villagers/</t>
-  </si>
-  <si>
-    <t>https://news.un.org/en/story/2019/03/1035661</t>
   </si>
   <si>
     <t>https://www.bloomberg.com/news/articles/2019-03-26/death-toll-from-mali-attacks-climbs-to-160-government-says</t>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
